--- a/criticalll freqqqq.xlsx
+++ b/criticalll freqqqq.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PST\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Education\ISI\new matlab\new critical frequency\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7FA71A0-2EB8-4177-AA5F-75D176032E66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{15774A18-8AE0-4F64-901A-2B8D136D08E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10" yWindow="80" windowWidth="12660" windowHeight="15090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14310" yWindow="50" windowWidth="11180" windowHeight="15090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="6">
   <si>
     <t>r_Disk</t>
   </si>
@@ -363,10 +363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G253"/>
+  <dimension ref="A1:G381"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="B319" workbookViewId="0">
+      <selection activeCell="E327" sqref="E327"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3942,8 +3942,8 @@
       <c r="D198" s="1">
         <v>1</v>
       </c>
-      <c r="E198" s="1">
-        <v>0.02</v>
+      <c r="E198" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="F198" s="1"/>
     </row>
@@ -4936,6 +4936,2154 @@
         <v>0.01</v>
       </c>
       <c r="F253" s="1"/>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A254" s="1">
+        <v>3</v>
+      </c>
+      <c r="B254" s="1">
+        <v>100</v>
+      </c>
+      <c r="C254" s="1">
+        <v>2</v>
+      </c>
+      <c r="D254" s="1">
+        <v>1</v>
+      </c>
+      <c r="E254" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A255" s="1">
+        <v>3</v>
+      </c>
+      <c r="B255" s="1">
+        <v>100</v>
+      </c>
+      <c r="C255" s="1">
+        <v>2</v>
+      </c>
+      <c r="D255" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="E255" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A256" s="1">
+        <v>3</v>
+      </c>
+      <c r="B256" s="1">
+        <v>100</v>
+      </c>
+      <c r="C256" s="1">
+        <v>2</v>
+      </c>
+      <c r="D256" s="1">
+        <v>2</v>
+      </c>
+      <c r="E256" s="1">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A257" s="1">
+        <v>3</v>
+      </c>
+      <c r="B257" s="1">
+        <v>100</v>
+      </c>
+      <c r="C257" s="1">
+        <v>2</v>
+      </c>
+      <c r="D257" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="E257" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A258" s="1">
+        <v>3</v>
+      </c>
+      <c r="B258" s="1">
+        <v>100</v>
+      </c>
+      <c r="C258" s="1">
+        <v>2</v>
+      </c>
+      <c r="D258" s="1">
+        <v>3</v>
+      </c>
+      <c r="E258" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A259" s="1">
+        <v>3</v>
+      </c>
+      <c r="B259" s="1">
+        <v>100</v>
+      </c>
+      <c r="C259" s="1">
+        <v>2</v>
+      </c>
+      <c r="D259" s="1">
+        <v>4</v>
+      </c>
+      <c r="E259" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A260" s="1">
+        <v>3</v>
+      </c>
+      <c r="B260" s="1">
+        <v>100</v>
+      </c>
+      <c r="C260" s="1">
+        <v>2</v>
+      </c>
+      <c r="D260" s="1">
+        <v>5</v>
+      </c>
+      <c r="E260" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A261" s="1">
+        <v>3</v>
+      </c>
+      <c r="B261" s="1">
+        <v>100</v>
+      </c>
+      <c r="C261" s="1">
+        <v>3</v>
+      </c>
+      <c r="D261" s="1">
+        <v>1</v>
+      </c>
+      <c r="E261" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A262" s="1">
+        <v>3</v>
+      </c>
+      <c r="B262" s="1">
+        <v>100</v>
+      </c>
+      <c r="C262" s="1">
+        <v>3</v>
+      </c>
+      <c r="D262" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="E262" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A263" s="1">
+        <v>3</v>
+      </c>
+      <c r="B263" s="1">
+        <v>100</v>
+      </c>
+      <c r="C263" s="1">
+        <v>3</v>
+      </c>
+      <c r="D263" s="1">
+        <v>2</v>
+      </c>
+      <c r="E263" s="1">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A264" s="1">
+        <v>3</v>
+      </c>
+      <c r="B264" s="1">
+        <v>100</v>
+      </c>
+      <c r="C264" s="1">
+        <v>3</v>
+      </c>
+      <c r="D264" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="E264" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A265" s="1">
+        <v>3</v>
+      </c>
+      <c r="B265" s="1">
+        <v>100</v>
+      </c>
+      <c r="C265" s="1">
+        <v>3</v>
+      </c>
+      <c r="D265" s="1">
+        <v>3</v>
+      </c>
+      <c r="E265" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A266" s="1">
+        <v>3</v>
+      </c>
+      <c r="B266" s="1">
+        <v>100</v>
+      </c>
+      <c r="C266" s="1">
+        <v>3</v>
+      </c>
+      <c r="D266" s="1">
+        <v>4</v>
+      </c>
+      <c r="E266" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A267" s="1">
+        <v>3</v>
+      </c>
+      <c r="B267" s="1">
+        <v>100</v>
+      </c>
+      <c r="C267" s="1">
+        <v>3</v>
+      </c>
+      <c r="D267" s="1">
+        <v>5</v>
+      </c>
+      <c r="E267" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A268" s="1">
+        <v>3</v>
+      </c>
+      <c r="B268" s="1">
+        <v>100</v>
+      </c>
+      <c r="C268" s="1">
+        <v>4</v>
+      </c>
+      <c r="D268" s="1">
+        <v>1</v>
+      </c>
+      <c r="E268" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A269" s="1">
+        <v>3</v>
+      </c>
+      <c r="B269" s="1">
+        <v>100</v>
+      </c>
+      <c r="C269" s="1">
+        <v>4</v>
+      </c>
+      <c r="D269" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="E269" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A270" s="1">
+        <v>3</v>
+      </c>
+      <c r="B270" s="1">
+        <v>100</v>
+      </c>
+      <c r="C270" s="1">
+        <v>4</v>
+      </c>
+      <c r="D270" s="1">
+        <v>2</v>
+      </c>
+      <c r="E270" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A271" s="1">
+        <v>3</v>
+      </c>
+      <c r="B271" s="1">
+        <v>100</v>
+      </c>
+      <c r="C271" s="1">
+        <v>4</v>
+      </c>
+      <c r="D271" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="E271" s="1">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A272" s="1">
+        <v>3</v>
+      </c>
+      <c r="B272" s="1">
+        <v>100</v>
+      </c>
+      <c r="C272" s="1">
+        <v>4</v>
+      </c>
+      <c r="D272" s="1">
+        <v>3</v>
+      </c>
+      <c r="E272" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A273" s="1">
+        <v>3</v>
+      </c>
+      <c r="B273" s="1">
+        <v>100</v>
+      </c>
+      <c r="C273" s="1">
+        <v>4</v>
+      </c>
+      <c r="D273" s="1">
+        <v>4</v>
+      </c>
+      <c r="E273" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A274" s="1">
+        <v>3</v>
+      </c>
+      <c r="B274" s="1">
+        <v>100</v>
+      </c>
+      <c r="C274" s="1">
+        <v>4</v>
+      </c>
+      <c r="D274" s="1">
+        <v>5</v>
+      </c>
+      <c r="E274" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A275" s="1">
+        <v>3</v>
+      </c>
+      <c r="B275" s="1">
+        <v>100</v>
+      </c>
+      <c r="C275" s="1">
+        <v>5</v>
+      </c>
+      <c r="D275" s="1">
+        <v>1</v>
+      </c>
+      <c r="E275" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A276" s="1">
+        <v>3</v>
+      </c>
+      <c r="B276" s="1">
+        <v>100</v>
+      </c>
+      <c r="C276" s="1">
+        <v>5</v>
+      </c>
+      <c r="D276" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="E276" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A277" s="1">
+        <v>3</v>
+      </c>
+      <c r="B277" s="1">
+        <v>100</v>
+      </c>
+      <c r="C277" s="1">
+        <v>5</v>
+      </c>
+      <c r="D277" s="1">
+        <v>2</v>
+      </c>
+      <c r="E277" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A278" s="1">
+        <v>3</v>
+      </c>
+      <c r="B278" s="1">
+        <v>100</v>
+      </c>
+      <c r="C278" s="1">
+        <v>5</v>
+      </c>
+      <c r="D278" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="E278" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A279" s="1">
+        <v>3</v>
+      </c>
+      <c r="B279" s="1">
+        <v>100</v>
+      </c>
+      <c r="C279" s="1">
+        <v>5</v>
+      </c>
+      <c r="D279" s="1">
+        <v>3</v>
+      </c>
+      <c r="E279" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A280" s="1">
+        <v>3</v>
+      </c>
+      <c r="B280" s="1">
+        <v>100</v>
+      </c>
+      <c r="C280" s="1">
+        <v>5</v>
+      </c>
+      <c r="D280" s="1">
+        <v>4</v>
+      </c>
+      <c r="E280" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A281" s="1">
+        <v>3</v>
+      </c>
+      <c r="B281" s="1">
+        <v>100</v>
+      </c>
+      <c r="C281" s="1">
+        <v>5</v>
+      </c>
+      <c r="D281" s="1">
+        <v>5</v>
+      </c>
+      <c r="E281" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A282" s="1">
+        <v>3</v>
+      </c>
+      <c r="B282" s="1">
+        <v>100</v>
+      </c>
+      <c r="C282" s="1">
+        <v>6</v>
+      </c>
+      <c r="D282" s="1">
+        <v>1</v>
+      </c>
+      <c r="E282" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A283" s="1">
+        <v>3</v>
+      </c>
+      <c r="B283" s="1">
+        <v>100</v>
+      </c>
+      <c r="C283" s="1">
+        <v>6</v>
+      </c>
+      <c r="D283" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="E283" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A284" s="1">
+        <v>3</v>
+      </c>
+      <c r="B284" s="1">
+        <v>100</v>
+      </c>
+      <c r="C284" s="1">
+        <v>6</v>
+      </c>
+      <c r="D284" s="1">
+        <v>2</v>
+      </c>
+      <c r="E284" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A285" s="1">
+        <v>3</v>
+      </c>
+      <c r="B285" s="1">
+        <v>100</v>
+      </c>
+      <c r="C285" s="1">
+        <v>6</v>
+      </c>
+      <c r="D285" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="E285" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A286" s="1">
+        <v>3</v>
+      </c>
+      <c r="B286" s="1">
+        <v>100</v>
+      </c>
+      <c r="C286" s="1">
+        <v>6</v>
+      </c>
+      <c r="D286" s="1">
+        <v>3</v>
+      </c>
+      <c r="E286" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A287" s="1">
+        <v>3</v>
+      </c>
+      <c r="B287" s="1">
+        <v>100</v>
+      </c>
+      <c r="C287" s="1">
+        <v>6</v>
+      </c>
+      <c r="D287" s="1">
+        <v>4</v>
+      </c>
+      <c r="E287" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A288" s="1">
+        <v>3</v>
+      </c>
+      <c r="B288" s="1">
+        <v>100</v>
+      </c>
+      <c r="C288" s="1">
+        <v>6</v>
+      </c>
+      <c r="D288" s="1">
+        <v>5</v>
+      </c>
+      <c r="E288" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A289" s="1">
+        <v>3</v>
+      </c>
+      <c r="B289" s="1">
+        <v>100</v>
+      </c>
+      <c r="C289" s="1">
+        <v>7</v>
+      </c>
+      <c r="D289" s="1">
+        <v>1</v>
+      </c>
+      <c r="E289" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A290" s="1">
+        <v>3</v>
+      </c>
+      <c r="B290" s="1">
+        <v>100</v>
+      </c>
+      <c r="C290" s="1">
+        <v>7</v>
+      </c>
+      <c r="D290" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="E290" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A291" s="1">
+        <v>3</v>
+      </c>
+      <c r="B291" s="1">
+        <v>100</v>
+      </c>
+      <c r="C291" s="1">
+        <v>7</v>
+      </c>
+      <c r="D291" s="1">
+        <v>2</v>
+      </c>
+      <c r="E291" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A292" s="1">
+        <v>3</v>
+      </c>
+      <c r="B292" s="1">
+        <v>100</v>
+      </c>
+      <c r="C292" s="1">
+        <v>7</v>
+      </c>
+      <c r="D292" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="E292" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A293" s="1">
+        <v>3</v>
+      </c>
+      <c r="B293" s="1">
+        <v>100</v>
+      </c>
+      <c r="C293" s="1">
+        <v>7</v>
+      </c>
+      <c r="D293" s="1">
+        <v>3</v>
+      </c>
+      <c r="E293" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A294" s="1">
+        <v>3</v>
+      </c>
+      <c r="B294" s="1">
+        <v>100</v>
+      </c>
+      <c r="C294" s="1">
+        <v>7</v>
+      </c>
+      <c r="D294" s="1">
+        <v>4</v>
+      </c>
+      <c r="E294" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A295" s="1">
+        <v>3</v>
+      </c>
+      <c r="B295" s="1">
+        <v>100</v>
+      </c>
+      <c r="C295" s="1">
+        <v>7</v>
+      </c>
+      <c r="D295" s="1">
+        <v>5</v>
+      </c>
+      <c r="E295" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A296" s="1">
+        <v>3</v>
+      </c>
+      <c r="B296" s="1">
+        <v>100</v>
+      </c>
+      <c r="C296" s="1">
+        <v>8</v>
+      </c>
+      <c r="D296" s="1">
+        <v>1</v>
+      </c>
+      <c r="E296" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A297" s="1">
+        <v>3</v>
+      </c>
+      <c r="B297" s="1">
+        <v>100</v>
+      </c>
+      <c r="C297" s="1">
+        <v>8</v>
+      </c>
+      <c r="D297" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="E297" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A298" s="1">
+        <v>3</v>
+      </c>
+      <c r="B298" s="1">
+        <v>100</v>
+      </c>
+      <c r="C298" s="1">
+        <v>8</v>
+      </c>
+      <c r="D298" s="1">
+        <v>2</v>
+      </c>
+      <c r="E298" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A299" s="1">
+        <v>3</v>
+      </c>
+      <c r="B299" s="1">
+        <v>100</v>
+      </c>
+      <c r="C299" s="1">
+        <v>8</v>
+      </c>
+      <c r="D299" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="E299" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A300" s="1">
+        <v>3</v>
+      </c>
+      <c r="B300" s="1">
+        <v>100</v>
+      </c>
+      <c r="C300" s="1">
+        <v>8</v>
+      </c>
+      <c r="D300" s="1">
+        <v>3</v>
+      </c>
+      <c r="E300" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A301" s="1">
+        <v>3</v>
+      </c>
+      <c r="B301" s="1">
+        <v>100</v>
+      </c>
+      <c r="C301" s="1">
+        <v>8</v>
+      </c>
+      <c r="D301" s="1">
+        <v>4</v>
+      </c>
+      <c r="E301" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A302" s="1">
+        <v>3</v>
+      </c>
+      <c r="B302" s="1">
+        <v>100</v>
+      </c>
+      <c r="C302" s="1">
+        <v>8</v>
+      </c>
+      <c r="D302" s="1">
+        <v>5</v>
+      </c>
+      <c r="E302" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A303" s="1">
+        <v>3</v>
+      </c>
+      <c r="B303" s="1">
+        <v>100</v>
+      </c>
+      <c r="C303" s="1">
+        <v>9</v>
+      </c>
+      <c r="D303" s="1">
+        <v>1</v>
+      </c>
+      <c r="E303" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A304" s="1">
+        <v>3</v>
+      </c>
+      <c r="B304" s="1">
+        <v>100</v>
+      </c>
+      <c r="C304" s="1">
+        <v>9</v>
+      </c>
+      <c r="D304" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="E304" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A305" s="1">
+        <v>3</v>
+      </c>
+      <c r="B305" s="1">
+        <v>100</v>
+      </c>
+      <c r="C305" s="1">
+        <v>9</v>
+      </c>
+      <c r="D305" s="1">
+        <v>2</v>
+      </c>
+      <c r="E305" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A306" s="1">
+        <v>3</v>
+      </c>
+      <c r="B306" s="1">
+        <v>100</v>
+      </c>
+      <c r="C306" s="1">
+        <v>9</v>
+      </c>
+      <c r="D306" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="E306" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A307" s="1">
+        <v>3</v>
+      </c>
+      <c r="B307" s="1">
+        <v>100</v>
+      </c>
+      <c r="C307" s="1">
+        <v>9</v>
+      </c>
+      <c r="D307" s="1">
+        <v>3</v>
+      </c>
+      <c r="E307" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A308" s="1">
+        <v>3</v>
+      </c>
+      <c r="B308" s="1">
+        <v>100</v>
+      </c>
+      <c r="C308" s="1">
+        <v>9</v>
+      </c>
+      <c r="D308" s="1">
+        <v>4</v>
+      </c>
+      <c r="E308" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A309" s="1">
+        <v>3</v>
+      </c>
+      <c r="B309" s="1">
+        <v>100</v>
+      </c>
+      <c r="C309" s="1">
+        <v>9</v>
+      </c>
+      <c r="D309" s="1">
+        <v>5</v>
+      </c>
+      <c r="E309" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A310" s="1">
+        <v>3</v>
+      </c>
+      <c r="B310" s="1">
+        <v>100</v>
+      </c>
+      <c r="C310" s="1">
+        <v>10</v>
+      </c>
+      <c r="D310" s="1">
+        <v>1</v>
+      </c>
+      <c r="E310" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A311" s="1">
+        <v>3</v>
+      </c>
+      <c r="B311" s="1">
+        <v>100</v>
+      </c>
+      <c r="C311" s="1">
+        <v>10</v>
+      </c>
+      <c r="D311" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="E311" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A312" s="1">
+        <v>3</v>
+      </c>
+      <c r="B312" s="1">
+        <v>100</v>
+      </c>
+      <c r="C312" s="1">
+        <v>10</v>
+      </c>
+      <c r="D312" s="1">
+        <v>2</v>
+      </c>
+      <c r="E312" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A313" s="1">
+        <v>3</v>
+      </c>
+      <c r="B313" s="1">
+        <v>100</v>
+      </c>
+      <c r="C313" s="1">
+        <v>10</v>
+      </c>
+      <c r="D313" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="E313" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A314" s="1">
+        <v>3</v>
+      </c>
+      <c r="B314" s="1">
+        <v>100</v>
+      </c>
+      <c r="C314" s="1">
+        <v>10</v>
+      </c>
+      <c r="D314" s="1">
+        <v>3</v>
+      </c>
+      <c r="E314" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A315" s="1">
+        <v>3</v>
+      </c>
+      <c r="B315" s="1">
+        <v>100</v>
+      </c>
+      <c r="C315" s="1">
+        <v>10</v>
+      </c>
+      <c r="D315" s="1">
+        <v>4</v>
+      </c>
+      <c r="E315" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A316" s="1">
+        <v>3</v>
+      </c>
+      <c r="B316" s="1">
+        <v>100</v>
+      </c>
+      <c r="C316" s="1">
+        <v>10</v>
+      </c>
+      <c r="D316" s="1">
+        <v>5</v>
+      </c>
+      <c r="E316" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A317" s="1">
+        <v>3</v>
+      </c>
+      <c r="B317" s="1">
+        <v>50</v>
+      </c>
+      <c r="C317" s="1">
+        <v>2</v>
+      </c>
+      <c r="D317" s="1">
+        <v>1</v>
+      </c>
+      <c r="E317" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A318" s="1">
+        <v>3</v>
+      </c>
+      <c r="B318" s="1">
+        <v>50</v>
+      </c>
+      <c r="C318" s="1">
+        <v>2</v>
+      </c>
+      <c r="D318" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="E318" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A319" s="1">
+        <v>3</v>
+      </c>
+      <c r="B319" s="1">
+        <v>50</v>
+      </c>
+      <c r="C319" s="1">
+        <v>2</v>
+      </c>
+      <c r="D319" s="1">
+        <v>2</v>
+      </c>
+      <c r="E319" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A320" s="1">
+        <v>3</v>
+      </c>
+      <c r="B320" s="1">
+        <v>50</v>
+      </c>
+      <c r="C320" s="1">
+        <v>2</v>
+      </c>
+      <c r="D320" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="E320" s="1">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A321" s="1">
+        <v>3</v>
+      </c>
+      <c r="B321" s="1">
+        <v>50</v>
+      </c>
+      <c r="C321" s="1">
+        <v>2</v>
+      </c>
+      <c r="D321" s="1">
+        <v>3</v>
+      </c>
+      <c r="E321" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A322" s="1">
+        <v>3</v>
+      </c>
+      <c r="B322" s="1">
+        <v>50</v>
+      </c>
+      <c r="C322" s="1">
+        <v>2</v>
+      </c>
+      <c r="D322" s="1">
+        <v>4</v>
+      </c>
+      <c r="E322" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A323" s="1">
+        <v>3</v>
+      </c>
+      <c r="B323" s="1">
+        <v>50</v>
+      </c>
+      <c r="C323" s="1">
+        <v>2</v>
+      </c>
+      <c r="D323" s="1">
+        <v>5</v>
+      </c>
+      <c r="E323" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A324" s="1">
+        <v>3</v>
+      </c>
+      <c r="B324" s="1">
+        <v>50</v>
+      </c>
+      <c r="C324" s="1">
+        <v>3</v>
+      </c>
+      <c r="D324" s="1">
+        <v>1</v>
+      </c>
+      <c r="E324" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A325" s="1">
+        <v>3</v>
+      </c>
+      <c r="B325" s="1">
+        <v>50</v>
+      </c>
+      <c r="C325" s="1">
+        <v>3</v>
+      </c>
+      <c r="D325" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="E325" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A326" s="1">
+        <v>3</v>
+      </c>
+      <c r="B326" s="1">
+        <v>50</v>
+      </c>
+      <c r="C326" s="1">
+        <v>3</v>
+      </c>
+      <c r="D326" s="1">
+        <v>2</v>
+      </c>
+      <c r="E326" s="1">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A327" s="1">
+        <v>3</v>
+      </c>
+      <c r="B327" s="1">
+        <v>50</v>
+      </c>
+      <c r="C327" s="1">
+        <v>3</v>
+      </c>
+      <c r="D327" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="E327" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A328" s="1">
+        <v>3</v>
+      </c>
+      <c r="B328" s="1">
+        <v>50</v>
+      </c>
+      <c r="C328" s="1">
+        <v>3</v>
+      </c>
+      <c r="D328" s="1">
+        <v>3</v>
+      </c>
+      <c r="E328" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A329" s="1">
+        <v>3</v>
+      </c>
+      <c r="B329" s="1">
+        <v>50</v>
+      </c>
+      <c r="C329" s="1">
+        <v>3</v>
+      </c>
+      <c r="D329" s="1">
+        <v>4</v>
+      </c>
+      <c r="E329" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A330" s="1">
+        <v>3</v>
+      </c>
+      <c r="B330" s="1">
+        <v>50</v>
+      </c>
+      <c r="C330" s="1">
+        <v>3</v>
+      </c>
+      <c r="D330" s="1">
+        <v>5</v>
+      </c>
+      <c r="E330" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A331" s="1">
+        <v>3</v>
+      </c>
+      <c r="B331" s="1">
+        <v>50</v>
+      </c>
+      <c r="C331" s="1">
+        <v>4</v>
+      </c>
+      <c r="D331" s="1">
+        <v>1</v>
+      </c>
+      <c r="E331" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A332" s="1">
+        <v>3</v>
+      </c>
+      <c r="B332" s="1">
+        <v>50</v>
+      </c>
+      <c r="C332" s="1">
+        <v>4</v>
+      </c>
+      <c r="D332" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="E332" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A333" s="1">
+        <v>3</v>
+      </c>
+      <c r="B333" s="1">
+        <v>50</v>
+      </c>
+      <c r="C333" s="1">
+        <v>4</v>
+      </c>
+      <c r="D333" s="1">
+        <v>2</v>
+      </c>
+      <c r="E333" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A334" s="1">
+        <v>3</v>
+      </c>
+      <c r="B334" s="1">
+        <v>50</v>
+      </c>
+      <c r="C334" s="1">
+        <v>4</v>
+      </c>
+      <c r="D334" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="E334" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A335" s="1">
+        <v>3</v>
+      </c>
+      <c r="B335" s="1">
+        <v>50</v>
+      </c>
+      <c r="C335" s="1">
+        <v>4</v>
+      </c>
+      <c r="D335" s="1">
+        <v>3</v>
+      </c>
+      <c r="E335" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A336" s="1">
+        <v>3</v>
+      </c>
+      <c r="B336" s="1">
+        <v>50</v>
+      </c>
+      <c r="C336" s="1">
+        <v>4</v>
+      </c>
+      <c r="D336" s="1">
+        <v>4</v>
+      </c>
+      <c r="E336" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A337" s="1">
+        <v>3</v>
+      </c>
+      <c r="B337" s="1">
+        <v>50</v>
+      </c>
+      <c r="C337" s="1">
+        <v>4</v>
+      </c>
+      <c r="D337" s="1">
+        <v>5</v>
+      </c>
+      <c r="E337" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A338" s="1">
+        <v>3</v>
+      </c>
+      <c r="B338" s="1">
+        <v>50</v>
+      </c>
+      <c r="C338" s="1">
+        <v>5</v>
+      </c>
+      <c r="D338" s="1">
+        <v>1</v>
+      </c>
+      <c r="E338" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A339" s="1">
+        <v>3</v>
+      </c>
+      <c r="B339" s="1">
+        <v>50</v>
+      </c>
+      <c r="C339" s="1">
+        <v>5</v>
+      </c>
+      <c r="D339" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="E339" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A340" s="1">
+        <v>3</v>
+      </c>
+      <c r="B340" s="1">
+        <v>50</v>
+      </c>
+      <c r="C340" s="1">
+        <v>5</v>
+      </c>
+      <c r="D340" s="1">
+        <v>2</v>
+      </c>
+      <c r="E340" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A341" s="1">
+        <v>3</v>
+      </c>
+      <c r="B341" s="1">
+        <v>50</v>
+      </c>
+      <c r="C341" s="1">
+        <v>5</v>
+      </c>
+      <c r="D341" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="E341" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A342" s="1">
+        <v>3</v>
+      </c>
+      <c r="B342" s="1">
+        <v>50</v>
+      </c>
+      <c r="C342" s="1">
+        <v>5</v>
+      </c>
+      <c r="D342" s="1">
+        <v>3</v>
+      </c>
+      <c r="E342" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A343" s="1">
+        <v>3</v>
+      </c>
+      <c r="B343" s="1">
+        <v>50</v>
+      </c>
+      <c r="C343" s="1">
+        <v>5</v>
+      </c>
+      <c r="D343" s="1">
+        <v>4</v>
+      </c>
+      <c r="E343" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A344" s="1">
+        <v>3</v>
+      </c>
+      <c r="B344" s="1">
+        <v>50</v>
+      </c>
+      <c r="C344" s="1">
+        <v>5</v>
+      </c>
+      <c r="D344" s="1">
+        <v>5</v>
+      </c>
+      <c r="E344" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A345" s="1">
+        <v>3</v>
+      </c>
+      <c r="B345" s="1">
+        <v>50</v>
+      </c>
+      <c r="C345" s="1">
+        <v>6</v>
+      </c>
+      <c r="D345" s="1">
+        <v>1</v>
+      </c>
+      <c r="E345" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A346" s="1">
+        <v>3</v>
+      </c>
+      <c r="B346" s="1">
+        <v>50</v>
+      </c>
+      <c r="C346" s="1">
+        <v>6</v>
+      </c>
+      <c r="D346" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="E346" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A347" s="1">
+        <v>3</v>
+      </c>
+      <c r="B347" s="1">
+        <v>50</v>
+      </c>
+      <c r="C347" s="1">
+        <v>6</v>
+      </c>
+      <c r="D347" s="1">
+        <v>2</v>
+      </c>
+      <c r="E347" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A348" s="1">
+        <v>3</v>
+      </c>
+      <c r="B348" s="1">
+        <v>50</v>
+      </c>
+      <c r="C348" s="1">
+        <v>6</v>
+      </c>
+      <c r="D348" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="E348" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A349" s="1">
+        <v>3</v>
+      </c>
+      <c r="B349" s="1">
+        <v>50</v>
+      </c>
+      <c r="C349" s="1">
+        <v>6</v>
+      </c>
+      <c r="D349" s="1">
+        <v>3</v>
+      </c>
+      <c r="E349" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A350" s="1">
+        <v>3</v>
+      </c>
+      <c r="B350" s="1">
+        <v>50</v>
+      </c>
+      <c r="C350" s="1">
+        <v>6</v>
+      </c>
+      <c r="D350" s="1">
+        <v>4</v>
+      </c>
+      <c r="E350" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A351" s="1">
+        <v>3</v>
+      </c>
+      <c r="B351" s="1">
+        <v>50</v>
+      </c>
+      <c r="C351" s="1">
+        <v>6</v>
+      </c>
+      <c r="D351" s="1">
+        <v>5</v>
+      </c>
+      <c r="E351" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A352" s="1">
+        <v>3</v>
+      </c>
+      <c r="B352" s="1">
+        <v>50</v>
+      </c>
+      <c r="C352" s="1">
+        <v>7</v>
+      </c>
+      <c r="D352" s="1">
+        <v>1</v>
+      </c>
+      <c r="E352" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A353" s="1">
+        <v>3</v>
+      </c>
+      <c r="B353" s="1">
+        <v>50</v>
+      </c>
+      <c r="C353" s="1">
+        <v>7</v>
+      </c>
+      <c r="D353" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="E353" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A354" s="1">
+        <v>3</v>
+      </c>
+      <c r="B354" s="1">
+        <v>50</v>
+      </c>
+      <c r="C354" s="1">
+        <v>7</v>
+      </c>
+      <c r="D354" s="1">
+        <v>2</v>
+      </c>
+      <c r="E354" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A355" s="1">
+        <v>3</v>
+      </c>
+      <c r="B355" s="1">
+        <v>50</v>
+      </c>
+      <c r="C355" s="1">
+        <v>7</v>
+      </c>
+      <c r="D355" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="E355" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A356" s="1">
+        <v>3</v>
+      </c>
+      <c r="B356" s="1">
+        <v>50</v>
+      </c>
+      <c r="C356" s="1">
+        <v>7</v>
+      </c>
+      <c r="D356" s="1">
+        <v>3</v>
+      </c>
+      <c r="E356" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A357" s="1">
+        <v>3</v>
+      </c>
+      <c r="B357" s="1">
+        <v>50</v>
+      </c>
+      <c r="C357" s="1">
+        <v>7</v>
+      </c>
+      <c r="D357" s="1">
+        <v>4</v>
+      </c>
+      <c r="E357" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A358" s="1">
+        <v>3</v>
+      </c>
+      <c r="B358" s="1">
+        <v>50</v>
+      </c>
+      <c r="C358" s="1">
+        <v>7</v>
+      </c>
+      <c r="D358" s="1">
+        <v>5</v>
+      </c>
+      <c r="E358" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A359" s="1">
+        <v>3</v>
+      </c>
+      <c r="B359" s="1">
+        <v>50</v>
+      </c>
+      <c r="C359" s="1">
+        <v>8</v>
+      </c>
+      <c r="D359" s="1">
+        <v>1</v>
+      </c>
+      <c r="E359" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A360" s="1">
+        <v>3</v>
+      </c>
+      <c r="B360" s="1">
+        <v>50</v>
+      </c>
+      <c r="C360" s="1">
+        <v>8</v>
+      </c>
+      <c r="D360" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="E360" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A361" s="1">
+        <v>3</v>
+      </c>
+      <c r="B361" s="1">
+        <v>50</v>
+      </c>
+      <c r="C361" s="1">
+        <v>8</v>
+      </c>
+      <c r="D361" s="1">
+        <v>2</v>
+      </c>
+      <c r="E361" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A362" s="1">
+        <v>3</v>
+      </c>
+      <c r="B362" s="1">
+        <v>50</v>
+      </c>
+      <c r="C362" s="1">
+        <v>8</v>
+      </c>
+      <c r="D362" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="E362" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A363" s="1">
+        <v>3</v>
+      </c>
+      <c r="B363" s="1">
+        <v>50</v>
+      </c>
+      <c r="C363" s="1">
+        <v>8</v>
+      </c>
+      <c r="D363" s="1">
+        <v>3</v>
+      </c>
+      <c r="E363" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A364" s="1">
+        <v>3</v>
+      </c>
+      <c r="B364" s="1">
+        <v>50</v>
+      </c>
+      <c r="C364" s="1">
+        <v>8</v>
+      </c>
+      <c r="D364" s="1">
+        <v>4</v>
+      </c>
+      <c r="E364" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A365" s="1">
+        <v>3</v>
+      </c>
+      <c r="B365" s="1">
+        <v>50</v>
+      </c>
+      <c r="C365" s="1">
+        <v>8</v>
+      </c>
+      <c r="D365" s="1">
+        <v>5</v>
+      </c>
+      <c r="E365" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A366" s="1">
+        <v>3</v>
+      </c>
+      <c r="B366" s="1">
+        <v>50</v>
+      </c>
+      <c r="C366" s="1">
+        <v>9</v>
+      </c>
+      <c r="D366" s="1">
+        <v>1</v>
+      </c>
+      <c r="E366" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A367" s="1">
+        <v>3</v>
+      </c>
+      <c r="B367" s="1">
+        <v>50</v>
+      </c>
+      <c r="C367" s="1">
+        <v>9</v>
+      </c>
+      <c r="D367" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="E367" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A368" s="1">
+        <v>3</v>
+      </c>
+      <c r="B368" s="1">
+        <v>50</v>
+      </c>
+      <c r="C368" s="1">
+        <v>9</v>
+      </c>
+      <c r="D368" s="1">
+        <v>2</v>
+      </c>
+      <c r="E368" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A369" s="1">
+        <v>3</v>
+      </c>
+      <c r="B369" s="1">
+        <v>50</v>
+      </c>
+      <c r="C369" s="1">
+        <v>9</v>
+      </c>
+      <c r="D369" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="E369" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A370" s="1">
+        <v>3</v>
+      </c>
+      <c r="B370" s="1">
+        <v>50</v>
+      </c>
+      <c r="C370" s="1">
+        <v>9</v>
+      </c>
+      <c r="D370" s="1">
+        <v>3</v>
+      </c>
+      <c r="E370" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A371" s="1">
+        <v>3</v>
+      </c>
+      <c r="B371" s="1">
+        <v>50</v>
+      </c>
+      <c r="C371" s="1">
+        <v>9</v>
+      </c>
+      <c r="D371" s="1">
+        <v>4</v>
+      </c>
+      <c r="E371" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A372" s="1">
+        <v>3</v>
+      </c>
+      <c r="B372" s="1">
+        <v>50</v>
+      </c>
+      <c r="C372" s="1">
+        <v>9</v>
+      </c>
+      <c r="D372" s="1">
+        <v>5</v>
+      </c>
+      <c r="E372" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A373" s="1">
+        <v>3</v>
+      </c>
+      <c r="B373" s="1">
+        <v>50</v>
+      </c>
+      <c r="C373" s="1">
+        <v>10</v>
+      </c>
+      <c r="D373" s="1">
+        <v>1</v>
+      </c>
+      <c r="E373" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A374" s="1">
+        <v>3</v>
+      </c>
+      <c r="B374" s="1">
+        <v>50</v>
+      </c>
+      <c r="C374" s="1">
+        <v>10</v>
+      </c>
+      <c r="D374" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="E374" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A375" s="1">
+        <v>3</v>
+      </c>
+      <c r="B375" s="1">
+        <v>50</v>
+      </c>
+      <c r="C375" s="1">
+        <v>10</v>
+      </c>
+      <c r="D375" s="1">
+        <v>2</v>
+      </c>
+      <c r="E375" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A376" s="1">
+        <v>3</v>
+      </c>
+      <c r="B376" s="1">
+        <v>50</v>
+      </c>
+      <c r="C376" s="1">
+        <v>10</v>
+      </c>
+      <c r="D376" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="E376" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A377" s="1">
+        <v>3</v>
+      </c>
+      <c r="B377" s="1">
+        <v>50</v>
+      </c>
+      <c r="C377" s="1">
+        <v>10</v>
+      </c>
+      <c r="D377" s="1">
+        <v>3</v>
+      </c>
+      <c r="E377" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A378" s="1">
+        <v>3</v>
+      </c>
+      <c r="B378" s="1">
+        <v>50</v>
+      </c>
+      <c r="C378" s="1">
+        <v>10</v>
+      </c>
+      <c r="D378" s="1">
+        <v>4</v>
+      </c>
+      <c r="E378" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A379" s="1">
+        <v>3</v>
+      </c>
+      <c r="B379" s="1">
+        <v>50</v>
+      </c>
+      <c r="C379" s="1">
+        <v>10</v>
+      </c>
+      <c r="D379" s="1">
+        <v>5</v>
+      </c>
+      <c r="E379" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E380" s="1"/>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E381" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
